--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Defines authorization details for a process described by an ActivityDefinition. Specifies which entities are authorized to request and receive process-related tasks, including message name and task profile.       This extension enables fine-grained authorization control for processes defined in an ActivityDefinition. It includes:   - `message-name`: The name of the message associated with the process.   - `task-profile`: The canonical URL of the required Task profile.   - `requester` and `recipient`. See the respective ValueSets `http://dsf.dev/fhir/ValueSet/process-authorization-requester|1.0.0` and `http://dsf.dev/fhir/ValueSet/process-authorization-recipient|1.0.0` for allowed codes.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -286,6 +283,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -418,14 +418,14 @@
     <t>Extension.extension:requester.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all-practitioner|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization-practitioner|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role-practitioner|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-all|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-organization|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-parent-organization-role|1.0.0}
+    <t xml:space="preserve">Coding {http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all-practitioner|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization-practitioner|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role-practitioner|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-all|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-organization|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-remote-parent-organization-role|2.0.0}
 </t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://dsf.dev/fhir/ValueSet/process-authorization-requester|1.0.0</t>
+    <t>http://dsf.dev/fhir/ValueSet/process-authorization-requester|2.0.0</t>
   </si>
   <si>
     <t>Extension.extension:recipient</t>
@@ -446,11 +446,11 @@
     <t>Extension.extension:recipient.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization|1.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role|1.0.0}
+    <t xml:space="preserve">Coding {http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-all|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-organization|2.0.0|http://dsf.dev/fhir/StructureDefinition/coding-process-authorization-local-parent-organization-role|2.0.0}
 </t>
   </si>
   <si>
-    <t>http://dsf.dev/fhir/ValueSet/process-authorization-recipient|1.0.0</t>
+    <t>http://dsf.dev/fhir/ValueSet/process-authorization-recipient|2.0.0</t>
   </si>
   <si>
     <t>base64Binary
@@ -688,57 +688,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -746,18 +744,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -776,163 +774,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.73828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.26171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.48828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.44140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -940,28 +938,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1012,19 +1010,19 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -1032,10 +1030,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1043,10 +1041,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1058,13 +1056,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1115,30 +1113,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1146,10 +1144,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1164,10 +1162,10 @@
         <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1221,16 +1219,16 @@
         <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1241,7 +1239,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>95</v>
@@ -1251,10 +1249,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1269,10 +1267,10 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1326,16 +1324,16 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1354,10 +1352,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1369,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1426,22 +1424,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1457,10 +1455,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1534,19 +1532,19 @@
         <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1562,10 +1560,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1639,10 +1637,10 @@
         <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1667,10 +1665,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1682,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>114</v>
@@ -1742,10 +1740,10 @@
         <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1762,7 +1760,7 @@
         <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>119</v>
@@ -1772,10 +1770,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1790,10 +1788,10 @@
         <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1847,16 +1845,16 @@
         <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -1875,10 +1873,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1890,13 +1888,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1947,22 +1945,22 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1978,10 +1976,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2055,19 +2053,19 @@
         <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -2083,10 +2081,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2160,10 +2158,10 @@
         <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2188,10 +2186,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2263,10 +2261,10 @@
         <v>116</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2283,7 +2281,7 @@
         <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>126</v>
@@ -2293,10 +2291,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2311,10 +2309,10 @@
         <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2368,16 +2366,16 @@
         <v>93</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -2396,10 +2394,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2411,13 +2409,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2468,22 +2466,22 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -2499,10 +2497,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2576,19 +2574,19 @@
         <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -2604,10 +2602,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2681,10 +2679,10 @@
         <v>110</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2709,10 +2707,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2782,10 +2780,10 @@
         <v>116</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -2802,7 +2800,7 @@
         <v>134</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>135</v>
@@ -2812,10 +2810,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -2830,10 +2828,10 @@
         <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2887,16 +2885,16 @@
         <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -2915,10 +2913,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -2930,13 +2928,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2987,22 +2985,22 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -3018,10 +3016,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3095,19 +3093,19 @@
         <v>93</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -3123,10 +3121,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3200,10 +3198,10 @@
         <v>110</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3228,10 +3226,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3301,10 +3299,10 @@
         <v>116</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -3329,10 +3327,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3406,10 +3404,10 @@
         <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3434,10 +3432,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3509,10 +3507,10 @@
         <v>116</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
